--- a/task_2_3/result.xlsx
+++ b/task_2_3/result.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0425887157384322</v>
+        <v>0.08935888601779997</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04910004519246356</v>
+        <v>0.1924446965399881</v>
       </c>
     </row>
   </sheetData>
